--- a/Erstes Ausbildungsjahr/ITS/Ampel kreutzung.xlsx
+++ b/Erstes Ausbildungsjahr/ITS/Ampel kreutzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\OSZIMT-repo-ITA12_aps\Erstes Ausbildungsjahr\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4EB0C11-53F5-415B-A82D-DD6A9205F1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05033C2-20EB-4087-9EE4-734632510199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{7E124FEA-4BEC-4843-BA5A-CE8C8C3ADE60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ga</t>
   </si>
@@ -48,16 +48,7 @@
     <t>gray</t>
   </si>
   <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>2A</t>
   </si>
 </sst>
 </file>
@@ -81,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -158,20 +149,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -179,6 +301,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -496,7 +643,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,119 +673,119 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>54</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>64</v>
+      <c r="A5" s="21">
+        <v>0</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -666,7 +813,7 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>24</v>
       </c>
     </row>
@@ -695,8 +842,8 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
+      <c r="I7" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,8 +871,8 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>10</v>
+      <c r="I8" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -753,37 +900,37 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>8</v>
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -795,7 +942,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -806,7 +953,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -817,7 +964,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -828,7 +975,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -839,7 +986,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -850,7 +997,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -861,7 +1008,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -872,7 +1019,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -883,7 +1030,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -894,7 +1041,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -905,7 +1052,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -916,7 +1063,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -927,7 +1074,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -938,7 +1085,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -949,7 +1096,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -960,7 +1107,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -971,7 +1118,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -982,7 +1129,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -993,7 +1140,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1004,7 +1151,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1015,7 +1162,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1026,7 +1173,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1037,7 +1184,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1048,7 +1195,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1059,7 +1206,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I10">
